--- a/data/trans_camb/P40_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P40_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.151369638355077</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.431309115875425</v>
+        <v>1.431309115875423</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.833296611245397</v>
+        <v>-3.883535885821904</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.088575574839549</v>
+        <v>-2.031016072248851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.781451323178975</v>
+        <v>-3.896627805611411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.723576257642126</v>
+        <v>-3.552513097033969</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.164799470239772</v>
+        <v>-6.271873102226532</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.5606567130854477</v>
+        <v>-0.3738643911095495</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.866652513208491</v>
+        <v>-3.095968191336413</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.151350605064222</v>
+        <v>-3.188808267708397</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.419241994380727</v>
+        <v>-1.517313721566786</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5792029035271284</v>
+        <v>0.5841517838915442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.733816635392132</v>
+        <v>3.559555261993472</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.071816054143161</v>
+        <v>2.723764765811985</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.351179536377186</v>
+        <v>3.740487085796544</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1970507283759801</v>
+        <v>0.03485242746805536</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.82705736468107</v>
+        <v>10.92613450017627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.366819856783395</v>
+        <v>1.152619590763734</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.000275069583993</v>
+        <v>1.016935833205294</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.700412173827188</v>
+        <v>5.160729833330953</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2004834095164665</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2492281558098626</v>
+        <v>0.2492281558098623</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7362945397871459</v>
+        <v>-0.7480677871673993</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4117840598313973</v>
+        <v>-0.4220541899097952</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8334287980244669</v>
+        <v>-0.826710570728611</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4084995145611962</v>
+        <v>-0.3880345065408177</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6715812035060948</v>
+        <v>-0.6938944480052073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07798317901550574</v>
+        <v>-0.04823267189983274</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4260538703169728</v>
+        <v>-0.4509034711762483</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.469228968961809</v>
+        <v>-0.4730903229930782</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2224495060956733</v>
+        <v>-0.2434556833262405</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2618432582069986</v>
+        <v>0.2959195795717522</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.284351940153988</v>
+        <v>1.225958754477621</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.120378773407172</v>
+        <v>1.061334942160476</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5817001321252581</v>
+        <v>0.6355881565287703</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1092421946537449</v>
+        <v>-0.009203759539360748</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.665960810587898</v>
+        <v>1.73405839822161</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2986846410181421</v>
+        <v>0.2573147777570043</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2216332487979721</v>
+        <v>0.2180702358371394</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9280971860771151</v>
+        <v>1.054272607564362</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-3.224287229420597</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.799613413386965</v>
+        <v>-1.799613413386966</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8929317785498534</v>
+        <v>-0.8311888005575869</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.673442830974521</v>
+        <v>-2.818024818058273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.210683180127953</v>
+        <v>-1.051549501972293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.704290438445649</v>
+        <v>-7.652234313440159</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.12012518139892</v>
+        <v>-10.18482313830168</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.897283330792161</v>
+        <v>-9.746429577030268</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.080082420778062</v>
+        <v>-3.265328402545562</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.295131498383377</v>
+        <v>-5.273144581315012</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.113830058402639</v>
+        <v>-4.052168752272662</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.162533187094001</v>
+        <v>4.109511136005369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.09837256452509</v>
+        <v>2.130036045433796</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.410808032428714</v>
+        <v>5.613415509986651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.3086250894991013</v>
+        <v>-0.143800301157081</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.351275973595036</v>
+        <v>-3.142665850223308</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.47887069251306</v>
+        <v>-2.263209824466494</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.378220489157689</v>
+        <v>1.100411717868101</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.027772637877824</v>
+        <v>-1.305529670067333</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8965706138807011</v>
+        <v>0.6897406145082711</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3713202401182919</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2072498004152775</v>
+        <v>-0.2072498004152776</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1623309360682453</v>
+        <v>-0.1648866854957845</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4790286927590225</v>
+        <v>-0.4733629929841677</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2230515183150663</v>
+        <v>-0.1843509934916361</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5060678713689982</v>
+        <v>-0.5121340464437116</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6732105895252549</v>
+        <v>-0.6616535997125763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6606298036519964</v>
+        <v>-0.6488622314287936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3164401116651035</v>
+        <v>-0.3371933472657574</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5385986919176587</v>
+        <v>-0.5392439345982795</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4310670097084092</v>
+        <v>-0.4235137783817061</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.098147513315036</v>
+        <v>1.030761883226931</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5351793201683409</v>
+        <v>0.5831185630877024</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.255922905062634</v>
+        <v>1.468490226800429</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.007614293670554429</v>
+        <v>-0.001157918299808529</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2870812344268079</v>
+        <v>-0.2573084752618332</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2097690731164523</v>
+        <v>-0.1862927781559011</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1786657527106646</v>
+        <v>0.1482082850846904</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1302047380564034</v>
+        <v>-0.1658769141990887</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1108253107754452</v>
+        <v>0.103984255059027</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.517098396572704</v>
+        <v>-4.899085627352473</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.553447552184346</v>
+        <v>-6.438621938168848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.773824913416217</v>
+        <v>-6.985372488437604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.069773153607627</v>
+        <v>-6.920253975544951</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.21356685502587</v>
+        <v>-12.60691911087846</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.497217890028258</v>
+        <v>-9.48388849188707</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.970414042220006</v>
+        <v>-4.879938828778279</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.605526220769821</v>
+        <v>-8.322152355864761</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.440458437493932</v>
+        <v>-7.057948800503359</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.04541543805677</v>
+        <v>2.142506388644354</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06918838338664392</v>
+        <v>0.3443183294002009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.06262014619416993</v>
+        <v>-0.0117870034939986</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.545621615265647</v>
+        <v>1.528305956710838</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.701138485973266</v>
+        <v>-4.793144552759573</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-2.042518272409739</v>
+        <v>-1.72088005155833</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.564170352245978</v>
+        <v>0.5864653933596766</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.259366060887488</v>
+        <v>-3.029917797204698</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.288166753872899</v>
+        <v>-1.752181941194482</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3637681296673678</v>
+        <v>-0.3731228325252358</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5230391271441162</v>
+        <v>-0.493477765625537</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5301972025147261</v>
+        <v>-0.5344087283439155</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3339993997493947</v>
+        <v>-0.3230884471652717</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5852145227625609</v>
+        <v>-0.5854289453738923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4453354648047705</v>
+        <v>-0.4520576369695162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2965009254637411</v>
+        <v>-0.2945441914082497</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5167924653826316</v>
+        <v>-0.5103949826106822</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4420580662346849</v>
+        <v>-0.4288895218411569</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2179906416786652</v>
+        <v>0.2423845789734509</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.006082637123033782</v>
+        <v>0.04168400570986963</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.003932452849009694</v>
+        <v>0.01814281399097372</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1003107118890147</v>
+        <v>0.09805551031566867</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2732345110134963</v>
+        <v>-0.2811021095147478</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1259820217925361</v>
+        <v>-0.1041892908418358</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04315013176320686</v>
+        <v>0.04277584175770478</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2377931696109087</v>
+        <v>-0.2242250211378177</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1599015637172285</v>
+        <v>-0.1239243096606914</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.528440851884906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.697421301513977</v>
+        <v>4.697421301513971</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.194552436167322</v>
@@ -1297,7 +1297,7 @@
         <v>-5.987389099117754</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.729476549064742</v>
+        <v>-3.729476549064736</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.5742497200789454</v>
@@ -1306,7 +1306,7 @@
         <v>-1.715365094746379</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.5612837004003474</v>
+        <v>0.5612837004003501</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.576495039940018</v>
+        <v>-2.120898925634775</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.858349862061206</v>
+        <v>-1.737575384337288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5084587367605801</v>
+        <v>0.3577612044140655</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.105507690917817</v>
+        <v>-8.589916444574088</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.0168506707086</v>
+        <v>-10.94818884218947</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.111350470764048</v>
+        <v>-8.58122445050093</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.100826992641209</v>
+        <v>-4.147728878667257</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.939451086163051</v>
+        <v>-5.021426359011703</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.671629277398846</v>
+        <v>-2.441502793441722</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.326433072073261</v>
+        <v>6.554197321408382</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.713815169379115</v>
+        <v>6.795773595893012</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.048458908010208</v>
+        <v>8.994725108765167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.313803965604379</v>
+        <v>2.284975399009728</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.663858485613147</v>
+        <v>-0.6348416935139506</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6149936298326084</v>
+        <v>0.4174373678693071</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.890316031883114</v>
+        <v>3.027959174337365</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.957050273783974</v>
+        <v>1.730055609075449</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.583111969088826</v>
+        <v>4.026712455893869</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1903488073205388</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3536363295027081</v>
+        <v>0.3536363295027077</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1181555074554013</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2214529300974487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.137940510604498</v>
+        <v>-0.1379405106044978</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.02849987251840594</v>
@@ -1411,7 +1411,7 @@
         <v>-0.08513314819913932</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.02785637214741684</v>
+        <v>0.02785637214741698</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1746616037590105</v>
+        <v>-0.1417068076504186</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1182403878772288</v>
+        <v>-0.1156773612696702</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02797895643899845</v>
+        <v>0.02231656842458255</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2740553086045627</v>
+        <v>-0.2910047608333388</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3655617645349412</v>
+        <v>-0.3693346929391267</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2714173329319773</v>
+        <v>-0.2781974042611125</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1890102229720964</v>
+        <v>-0.1902490061280752</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2291694550060666</v>
+        <v>-0.227456241546887</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1263007101931978</v>
+        <v>-0.1103177104047007</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5352155115867058</v>
+        <v>0.6033031200433705</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6269943740414694</v>
+        <v>0.5985867813010376</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.841505246032476</v>
+        <v>0.8147612241325357</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1022511616602114</v>
+        <v>0.09676025793004285</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02196228575129806</v>
+        <v>-0.02489608379126849</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02501036403348542</v>
+        <v>0.01820585270558171</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1621731338761075</v>
+        <v>0.1589396489425401</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09933648417717189</v>
+        <v>0.09323112278246745</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1981718273379114</v>
+        <v>0.2217431365764162</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.971066812820683</v>
+        <v>-8.184641618674123</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.7105792045206</v>
+        <v>-11.12573369097535</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.683589216375618</v>
+        <v>-4.901452451080807</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.391648445388396</v>
+        <v>-7.983384469633697</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.795729061127811</v>
+        <v>-7.804108673266199</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.005590574165478</v>
+        <v>-9.53871709211958</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.839597622308743</v>
+        <v>-5.690038884867478</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.52757353598114</v>
+        <v>-7.282443539700632</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.92188189031433</v>
+        <v>-5.681741527579624</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.773519923966598</v>
+        <v>4.638072006526606</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.98175652940578</v>
+        <v>1.339615604033833</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.920608310431188</v>
+        <v>6.396699838643635</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.217478255338195</v>
+        <v>5.524506116137876</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.181247440935582</v>
+        <v>5.943533330513628</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.553268218860036</v>
+        <v>1.834422385199358</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.47781812858852</v>
+        <v>3.677093687673812</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.201891211085566</v>
+        <v>1.878559240924329</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.115059894390294</v>
+        <v>2.413240391657403</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2498235363017956</v>
+        <v>-0.2564366785010362</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3396444849286077</v>
+        <v>-0.3548888671058418</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1444856444232315</v>
+        <v>-0.1538304083575493</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1741079710258952</v>
+        <v>-0.1891937920092861</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1819438659747141</v>
+        <v>-0.1838020375351832</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2103038828454634</v>
+        <v>-0.2196689384246183</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.161601971285256</v>
+        <v>-0.1553746378272856</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2054392739228549</v>
+        <v>-0.2040666297398263</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1592654942790196</v>
+        <v>-0.1537826335728869</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1826862384889326</v>
+        <v>0.1791690724822949</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.07681011538767642</v>
+        <v>0.05363646499802388</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2919276955059668</v>
+        <v>0.244531959169573</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1761852394759072</v>
+        <v>0.1535178153287807</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1462490573572661</v>
+        <v>0.1647781042038028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07163815386136768</v>
+        <v>0.05272892323012455</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1096653169198964</v>
+        <v>0.1198000356627188</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0419431762486187</v>
+        <v>0.05869080549173512</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.06600994083357126</v>
+        <v>0.07806534248581737</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-7.778624656563765</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-11.90446500999388</v>
+        <v>-11.90446500999387</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.732542090999267</v>
+        <v>-9.363172566427354</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-12.18380665561589</v>
+        <v>-11.94670734551644</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-12.87190901110597</v>
+        <v>-12.04482203238925</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-15.90621151751832</v>
+        <v>-17.10052272349134</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-17.12543360779724</v>
+        <v>-17.36687194077464</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.3464560762133</v>
+        <v>-22.64408379733573</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-11.69923195324314</v>
+        <v>-11.31448454193506</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.8711904336916</v>
+        <v>-12.82966670995398</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-16.44075619606192</v>
+        <v>-16.93700633610557</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.383806320319526</v>
+        <v>6.290404530746413</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.832033625961036</v>
+        <v>2.792748950750087</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.6681157497834642</v>
+        <v>0.4770327624522207</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.92163831165796</v>
+        <v>-2.298782530343152</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.455246043563219</v>
+        <v>-2.61742331158632</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-10.25790756373814</v>
+        <v>-10.49391654697773</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.7061725026233256</v>
+        <v>-1.165436736419026</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.889425554836383</v>
+        <v>-2.24075489805197</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-7.344684211563597</v>
+        <v>-7.571122829493937</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.1614083563111517</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2470205486011393</v>
+        <v>-0.2470205486011391</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2497320151728647</v>
+        <v>-0.2397758355993954</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3127890690989667</v>
+        <v>-0.3001342492030046</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3272492591091282</v>
+        <v>-0.3163261006690616</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2606773855563488</v>
+        <v>-0.2765851962303179</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2730099929124554</v>
+        <v>-0.2754369167881499</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3565323885303068</v>
+        <v>-0.3567956586659711</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2318280067660406</v>
+        <v>-0.2236545529970122</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2526936749748807</v>
+        <v>-0.2546638830347354</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3220700447455271</v>
+        <v>-0.3322955894271828</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.201640666454534</v>
+        <v>0.1941664441012446</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.09537979189959567</v>
+        <v>0.09111591560069844</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.02003286608814163</v>
+        <v>0.01233015135220694</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.03450824713755087</v>
+        <v>-0.04322681746678748</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.04262905097588025</v>
+        <v>-0.04263056614405551</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.187496161540793</v>
+        <v>-0.1901420938333016</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.01568246222570056</v>
+        <v>-0.02470504178355612</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.04398886236382103</v>
+        <v>-0.05116370707595031</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.1634885047814526</v>
+        <v>-0.1658022555834435</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-0.7616067175509333</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.703232086763173</v>
+        <v>-1.703232086763184</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.682160100140451</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.114092205718105</v>
+        <v>-8.256856718071166</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-14.81626097751996</v>
+        <v>-15.079448218263</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.44370066355458</v>
+        <v>-15.69923041319949</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.568558162171721</v>
+        <v>-6.442599510499038</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.803559579631833</v>
+        <v>-8.635300375174728</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.280261925222492</v>
+        <v>-8.458549763549279</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.363135155073963</v>
+        <v>-4.347960991040707</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-9.541577506479513</v>
+        <v>-8.556711090033438</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-9.048925969532554</v>
+        <v>-9.663232883907083</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.39607563837284</v>
+        <v>10.63578944146918</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.913057546651309</v>
+        <v>3.144522458643904</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.1068482161846582</v>
+        <v>0.74143270672123</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.03875614251199</v>
+        <v>8.879028807716358</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.067428361047609</v>
+        <v>6.791597433615149</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.859293247609351</v>
+        <v>4.76541928657059</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.117741297892624</v>
+        <v>7.128853976426454</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.436151248402232</v>
+        <v>3.099698491655915</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3009864972468118</v>
+        <v>0.568823150612533</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.0117477845742237</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.02627235707628998</v>
+        <v>-0.02627235707629015</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.02775644534307041</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1376909757250243</v>
+        <v>-0.141502399388191</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2481538273786741</v>
+        <v>-0.2532563253873817</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2783808446946699</v>
+        <v>-0.2644418380402909</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.08152592957561421</v>
+        <v>-0.09263833028646597</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1150372448432554</v>
+        <v>-0.1225886518310621</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1171199779242107</v>
+        <v>-0.1204754363786968</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.06873367387956761</v>
+        <v>-0.06765110389033042</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1505258520396423</v>
+        <v>-0.1346643906991255</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1411058843616398</v>
+        <v>-0.1493232168036414</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2296664345535612</v>
+        <v>0.2230444659909996</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.05825287215582942</v>
+        <v>0.06510984616792469</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.002513321415635365</v>
+        <v>0.01574695969744533</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1672484049155577</v>
+        <v>0.146125795521839</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1355296271021841</v>
+        <v>0.1102114625900526</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.08149734130063002</v>
+        <v>0.07855220906516372</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1252769625156974</v>
+        <v>0.125371002187552</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.05812835505597265</v>
+        <v>0.05419834611291003</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.006005604342763327</v>
+        <v>0.01035603500049139</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.8914713927311002</v>
+        <v>-0.6843529292768167</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.760501743386162</v>
+        <v>-1.834226969289809</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.9154125275958738</v>
+        <v>0.7473865882637459</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.796622360358629</v>
+        <v>-3.713749422863734</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.495842349595098</v>
+        <v>-5.715907040501459</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.03801188426237</v>
+        <v>-3.170232681927631</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.825778004775704</v>
+        <v>-1.944754091686522</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.163975933567037</v>
+        <v>-3.186013814407793</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5377705363798584</v>
+        <v>-0.5579760717311144</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.722628221167106</v>
+        <v>2.888640854896183</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.733765694984461</v>
+        <v>1.67052475818135</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.637442914877277</v>
+        <v>4.593148181167865</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.6465729781685668</v>
+        <v>0.6925702741390051</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-1.222687269093443</v>
+        <v>-1.183175074588782</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.045504166644388</v>
+        <v>0.8726345974158618</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.014184268480777</v>
+        <v>1.133221857841843</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.3508442115570067</v>
+        <v>-0.2934912833438588</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.267265888717215</v>
+        <v>2.278630119568911</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05341750569689874</v>
+        <v>-0.04189466764617766</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1049901594508982</v>
+        <v>-0.1065944983199395</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.05437941690908416</v>
+        <v>0.04471392613172714</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1272229724088542</v>
+        <v>-0.1244541322868652</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1873434042707132</v>
+        <v>-0.193058163248279</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1014436992775376</v>
+        <v>-0.1066809130048933</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.08032688940341778</v>
+        <v>-0.08440431398286971</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1385267202314794</v>
+        <v>-0.1376029724026737</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.02245475097185204</v>
+        <v>-0.02417523647823836</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1788961915807888</v>
+        <v>0.18913034193244</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1120905460601596</v>
+        <v>0.1094579758080438</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3057519489909717</v>
+        <v>0.3041698635184857</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.02264507144609376</v>
+        <v>0.02689979919606499</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.04636960621960532</v>
+        <v>-0.04481757349698404</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.03782190894347986</v>
+        <v>0.03211605878497458</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04699839066712677</v>
+        <v>0.05251560653524172</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.01655775429077338</v>
+        <v>-0.01341921240016025</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1051694068995099</v>
+        <v>0.1031442440740555</v>
       </c>
     </row>
     <row r="52">
